--- a/Selected features.xlsx
+++ b/Selected features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dishanachar/Documents/DataScience/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dishanachar/Documents/DataScience/Project/Website-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{631C602E-077E-3A43-804C-63F258CE81DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E5408A-B221-7B4A-BAB0-5C7458200177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5E12F36D-C84A-1240-9A73-331903C71BB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5E12F36D-C84A-1240-9A73-331903C71BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Feature Selection method</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>principal component analysis</t>
+  </si>
+  <si>
+    <t>background_color_rgba, most_used_font_face, image_percentage</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +717,9 @@
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
